--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(N)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(N).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(N)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(N).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naj
-Najas - Najadacées
-Najas guadalupensis - Najas de la Guadeloupe
-Nan
-Nandina
-Nandina domestica
-Nar
-Narcissus - Amaryllidacées
+          <t>Naj</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Najas - Najadacées
+Najas guadalupensis - Najas de la Guadeloupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nandina
+Nandina domestica</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Narcissus - Amaryllidacées
 Narcissus cyclamineus - Narcisse miniature
 Narcissus incomparabilis - Narcisse incomparable
 Narcissus jonquilla - Narcisse jonquille
@@ -529,48 +614,155 @@
 Narcissus triandrus
 Narcissus triandrus capax - Narcisse des Glénans
 Nardus - Poacées
-Nardus stricta
-Nas
-Nasturtium - Brassicacées
+Nardus stricta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nasturtium - Brassicacées
 Nasturtium officinalis - Cresson de fontaine
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nei
-Neillia
-Neillia affinis
-Nel
-Nelumbium -Nélumbonacées
-Nelumbium nucifera - Lotus de l'Inde ou « Nelumbo »
-Nem
-Nemesia - Scrophulariacées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nei</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Neillia
+Neillia affinis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nelumbium -Nélumbonacées
+Nelumbium nucifera - Lotus de l'Inde ou « Nelumbo »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nem</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nemesia - Scrophulariacées
 Nemesia fruticans
 Nemesia strumosa - Nemesia d'Afrique
 Nemopanthus
@@ -578,66 +770,309 @@
 Nemophila - Hydrophyllacées
 Nemophila maculata
 Nemophila mensiesii ou Nemophila insignis
-Nemophila mensiesii alba
-Neo
-Neoregelia
+Nemophila mensiesii alba</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Neo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Neoregelia
 Neoregelia carolinae
-Neoregelia carolinae Tricolor - Neoregelia
-Nep
-Nepeta - Lamiacées
+Neoregelia carolinae Tricolor - Neoregelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nep</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nepeta - Lamiacées
 Nepeta cataria - Cataire
 Nepeta mussini ou Nepeta faassenii
-Neptunia
-Ner
-Nerine - Amaryllidacées
+Neptunia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ner</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nerine - Amaryllidacées
 Nerine bowdenii - Nérine de Bowden
 Nerium
-Nerium oleander - Laurier rose
-Nes
-Neslia - Brassicacées
-Neslia paniculata - Neslie à panicule
-New
-Newtonia
+Nerium oleander - Laurier rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Neslia - Brassicacées
+Neslia paniculata - Neslie à panicule</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newtonia
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ni</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nic
-Nicolata - Zingibéracées
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nic</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nicolata - Zingibéracées
 Nicolata eliator - Rose de porcelaine
 Nicotiana - Solanacées
-Nicotiana glauca - Tabac glauque
-Nie
-Nierembergia
-Nierembergia frutescens
-Nig
-Nigella - Renonculacées
+Nicotiana glauca - Tabac glauque</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nierembergia
+Nierembergia frutescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nig</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nigella - Renonculacées
 Nigella damascena - Nigelle de Damas
 Nigella hispanica - Nigelle d'Espagne
 Nigritella - Orchidacées
@@ -646,34 +1081,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Not
-Nothofagus - Nothofagacées
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nothofagus - Nothofagacées
 Nothofagus dombeyi
 Nothofagus nervosa
 Nothofagus obliqua
@@ -684,41 +1124,80 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Ny</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nym
-Nymphaea - Nymphaéacées
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nym</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nymphaea - Nymphaéacées
 Nymphaea alba - Nénuphar blanc
 Nymphaea candida - Nénuphar blanc boréal
 Nymphaea lotus - Lotus blanc égyptien
 Nymphaea rubra
-Nymphaea tetragona
-Nys
-Nyssa
+Nymphaea tetragona</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(N)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ny</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nys</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyssa
 Nyssa sylvatica - Nyssa sylvestre
 Voir aussi Plantes par nom scientifique | Flore
  Portail de l’écologie   Portail de la botanique                    </t>
